--- a/FINAL_SCORES_COMPARISON.xlsx
+++ b/FINAL_SCORES_COMPARISON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fra/Desktop/AA_TESI/tesi_gh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fra/Desktop/GH_TEHSIS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E0F8D8-1031-E941-A6F1-8265223BFB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70F9711-27F0-7848-A45A-A3DA5DFB2DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{C808EA33-FE0F-5640-9B33-FE1799761BD9}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="16800" windowHeight="18960" xr2:uid="{C808EA33-FE0F-5640-9B33-FE1799761BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="final scores" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -562,24 +562,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
@@ -589,12 +571,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -642,6 +618,27 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559FFC88-06C6-0349-AE77-68A3343FEDAA}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="157" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -989,7 +986,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>5</v>
@@ -1009,7 +1006,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -1029,7 +1026,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>7</v>
@@ -1049,7 +1046,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>8</v>
@@ -1069,7 +1066,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
@@ -1089,7 +1086,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>10</v>
@@ -1109,7 +1106,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>11</v>
@@ -1129,7 +1126,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>12</v>
@@ -1149,7 +1146,7 @@
     </row>
     <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>13</v>
@@ -1339,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAF350A-CADE-DB43-896A-7C0AA1132BF2}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1356,29 +1353,29 @@
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="47"/>
+      <c r="G3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="26"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="29"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
@@ -1411,28 +1408,28 @@
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="30">
         <v>0.28424232511670899</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="31">
         <v>0.29674134350602699</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="32">
         <v>0.41701173892321403</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="31">
         <v>0.42555150684516602</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="33">
         <v>-1.1338687664926199E-2</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="33">
         <v>3.1321293238342198E-3</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="31">
         <v>0.70130382259031698</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="34">
         <v>0.70746290962935199</v>
       </c>
     </row>
@@ -1443,28 +1440,28 @@
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="35">
         <v>0.200587137607834</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="36">
         <v>0.18305008659613001</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="36">
         <v>0.34336042593448501</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="36">
         <v>0.32574795073503399</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="37">
         <v>-2.2195421463253599E-3</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="38">
         <v>-3.1788142441630698E-3</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="36">
         <v>0.789217702122334</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="39">
         <v>0.81954720402399395</v>
       </c>
     </row>
@@ -1475,28 +1472,28 @@
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="35">
         <v>0.19004717781140301</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="36">
         <v>0.17467692186216399</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="36">
         <v>0.33595167768105699</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="36">
         <v>0.320708617222904</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="38">
         <v>-2.3424183389194101E-3</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="38">
         <v>-7.2493136885341697E-5</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="36">
         <v>0.80029337213749396</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="39">
         <v>0.82780156224642698</v>
       </c>
     </row>
@@ -1507,28 +1504,28 @@
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="35">
         <v>0.189557407155417</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="36">
         <v>0.176602098505519</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="36">
         <v>0.33524323041137299</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="36">
         <v>0.32201913192170001</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="37">
         <v>-5.87420455132125E-3</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="38">
         <v>6.8735220591213597E-3</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="36">
         <v>0.80080803616597096</v>
       </c>
-      <c r="J8" s="47">
+      <c r="J8" s="39">
         <v>0.82590370186022799</v>
       </c>
     </row>
@@ -1539,28 +1536,28 @@
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="35">
         <v>0.18337333652304899</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="36">
         <v>0.17055328270727799</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="36">
         <v>0.32929133849816</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="36">
         <v>0.31597262743930099</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="38">
         <v>-3.47873035647238E-3</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="38">
         <v>1.2073978336556699E-3</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="36">
         <v>0.80730642202297898</v>
       </c>
-      <c r="J9" s="47">
+      <c r="J9" s="39">
         <v>0.83186669124435597</v>
       </c>
     </row>
@@ -1571,28 +1568,28 @@
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="40">
         <v>0.19068957800811701</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="41">
         <v>0.171530046798191</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="41">
         <v>0.33482443887232699</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="41">
         <v>0.31645229470526798</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="42">
         <v>1.98656468938251E-3</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="42">
         <v>6.6489616030072105E-4</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="41">
         <v>0.79993185750350504</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="43">
         <v>0.83115778669996898</v>
       </c>
     </row>
@@ -1601,7 +1598,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
@@ -1609,66 +1606,66 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
@@ -1703,30 +1700,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="33"/>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="26"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1753,259 +1750,259 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="30">
         <v>0.29775821889533999</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="31">
         <v>0.29674134350602699</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="36">
         <v>0.426402548017699</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="31">
         <v>0.42555150684516602</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="37">
         <v>-4.0418950977187202E-4</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="33">
         <v>3.1321293238342198E-3</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="31">
         <v>0.70660342522169595</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="34">
         <v>0.70746290962935199</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="34">
+      <c r="A4" s="28">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="35">
         <v>0.182810217685102</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="36">
         <v>0.18305008659613001</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="36">
         <v>0.32527880578889801</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="36">
         <v>0.32574795073503399</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="38">
         <v>-3.3225708032920899E-3</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="38">
         <v>-3.1788142441630698E-3</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="36">
         <v>0.81987145138806095</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="39">
         <v>0.81954720402399395</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="34">
+      <c r="A5" s="28">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="35">
         <v>0.17470639722791501</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="36">
         <v>0.17467692186216399</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="36">
         <v>0.32017584568326701</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="36">
         <v>0.320708617222904</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="38">
         <v>-9.4354156825140199E-4</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="38">
         <v>-7.2493136885341697E-5</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="36">
         <v>0.82785639575084902</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="39">
         <v>0.82780156224642698</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="32"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="26"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="34">
+      <c r="A6" s="28">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="35">
         <v>0.17592717542891001</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="36">
         <v>0.176602098505519</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="36">
         <v>0.321854143817143</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="36">
         <v>0.32201913192170001</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="37">
         <v>5.6771445573142003E-3</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="38">
         <v>6.8735220591213597E-3</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="44">
         <v>0.82665352531884195</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="39">
         <v>0.82590370186022799</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="32"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="34">
+      <c r="A7" s="28">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="35">
         <v>0.170138543884129</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="36">
         <v>0.17055328270727799</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="36">
         <v>0.31555688802495602</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="36">
         <v>0.31597262743930099</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="37">
         <v>4.7033733654198398E-4</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="38">
         <v>1.2073978336556699E-3</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="36">
         <v>0.83235724260452904</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="39">
         <v>0.83186669124435597</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="32"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
     </row>
     <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
+      <c r="A8" s="29">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="40">
         <v>0.17102106994535299</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="41">
         <v>0.171530046798191</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="41">
         <v>0.31589585177587598</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="41">
         <v>0.31645229470526798</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="42">
         <v>7.8561233520025805E-4</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="42">
         <v>6.6489616030072105E-4</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="45">
         <v>0.83165878801114201</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="43">
         <v>0.83115778669996898</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="32"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
     </row>
     <row r="10" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B10:F13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B10:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FINAL_SCORES_COMPARISON.xlsx
+++ b/FINAL_SCORES_COMPARISON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fra/Desktop/GH_TEHSIS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70F9711-27F0-7848-A45A-A3DA5DFB2DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7224F2-E15B-0346-AFB6-90BD2B1E7767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="16800" windowHeight="18960" xr2:uid="{C808EA33-FE0F-5640-9B33-FE1799761BD9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
   <si>
     <t>method</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>col width 12.9</t>
+  </si>
+  <si>
+    <t>0.00313212932383422 modificare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> modificare MR</t>
   </si>
 </sst>
 </file>
@@ -143,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +162,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -514,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -640,6 +652,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,7 +970,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,8 +1010,8 @@
       <c r="D2" s="11">
         <v>0.42555150684516602</v>
       </c>
-      <c r="E2" s="12">
-        <v>3.1321293238342198E-3</v>
+      <c r="E2" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="23">
         <v>0.70746290962935199</v>
@@ -1169,6 +1182,9 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
+      <c r="E12" s="53" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FINAL_SCORES_COMPARISON.xlsx
+++ b/FINAL_SCORES_COMPARISON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fra/Desktop/GH_TEHSIS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7224F2-E15B-0346-AFB6-90BD2B1E7767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACE1438-B05A-B048-99EA-ADC6D4C095F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="500" windowWidth="16800" windowHeight="18960" xr2:uid="{C808EA33-FE0F-5640-9B33-FE1799761BD9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18960" xr2:uid="{C808EA33-FE0F-5640-9B33-FE1799761BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="final scores" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="26">
   <si>
     <t>method</t>
   </si>
@@ -110,10 +110,13 @@
     <t>col width 12.9</t>
   </si>
   <si>
-    <t>0.00313212932383422 modificare</t>
+    <t>modificato</t>
   </si>
   <si>
-    <t xml:space="preserve"> modificare MR</t>
+    <t xml:space="preserve">non modifico </t>
+  </si>
+  <si>
+    <t>VECCHI !!!</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,6 +147,27 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -522,11 +546,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,7 +672,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -625,12 +745,56 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -649,10 +813,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,224 +1154,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559FFC88-06C6-0349-AE77-68A3343FEDAA}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="58">
         <v>0.29674134350602699</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="59">
         <v>0.42555150684516602</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="37">
+        <v>-1.65E-4</v>
+      </c>
+      <c r="F2" s="60">
+        <v>0.70746290962935199</v>
+      </c>
+      <c r="H2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="23">
-        <v>0.70746290962935199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="61">
         <v>0.49555242280028999</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="35">
         <v>0.53934715801116195</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="37">
         <v>5.1330520396678696E-3</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="38">
         <v>0.51147895141784205</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
-        <v>0.20784187696425299</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.351645450928186</v>
-      </c>
-      <c r="E4" s="5">
-        <v>6.8254810546698099E-3</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0.79510718341340803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="61">
+        <v>0.20702899999999999</v>
+      </c>
+      <c r="D4" s="35">
+        <v>0.35193600000000003</v>
+      </c>
+      <c r="E4" s="37">
+        <v>-1.6150000000000001E-2</v>
+      </c>
+      <c r="F4" s="38">
+        <v>0.79596</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6">
-        <v>0.22460885496275701</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.361214010419039</v>
-      </c>
-      <c r="E5" s="5">
-        <v>7.2722847387011005E-4</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0.77857811141917499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="61">
+        <v>0.22459699999999999</v>
+      </c>
+      <c r="D5" s="35">
+        <v>0.36152699999999999</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1.13E-4</v>
+      </c>
+      <c r="F5" s="38">
+        <v>0.77864599999999995</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
-        <v>0.18305008659613001</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.32574795073503399</v>
-      </c>
-      <c r="E6" s="5">
-        <v>-3.1788142441630698E-3</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0.81954720402399395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="61">
+        <v>0.18448000000000001</v>
+      </c>
+      <c r="D6" s="35">
+        <v>0.32691199999999998</v>
+      </c>
+      <c r="E6" s="37">
+        <v>-3.4919999999999999E-3</v>
+      </c>
+      <c r="F6" s="38">
+        <v>0.81818400000000002</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
-        <v>0.17467692186216399</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.320708617222904</v>
-      </c>
-      <c r="E7" s="5">
-        <v>-7.2493136885341697E-5</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0.82780156224642698</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="61">
+        <v>0.175037</v>
+      </c>
+      <c r="D7" s="35">
+        <v>0.32057000000000002</v>
+      </c>
+      <c r="E7" s="37">
+        <v>3.1199999999999999E-4</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0.82749099999999998</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6">
-        <v>0.176602098505519</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.32201913192170001</v>
-      </c>
-      <c r="E8" s="5">
-        <v>6.8735220591213597E-3</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0.82590370186022799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="61">
+        <v>0.17523900000000001</v>
+      </c>
+      <c r="D8" s="35">
+        <v>0.32075599999999999</v>
+      </c>
+      <c r="E8" s="37">
+        <v>6.5259999999999997E-3</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0.827291</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6">
-        <v>0.17055328270727799</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.31597262743930099</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1.2073978336556699E-3</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0.83186669124435597</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="61">
+        <v>0.170824</v>
+      </c>
+      <c r="D9" s="35">
+        <v>0.316085</v>
+      </c>
+      <c r="E9" s="37">
+        <v>2.0370000000000002E-3</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0.83164199999999999</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="24">
-        <v>0.171530046798191</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0.31645229470526798</v>
-      </c>
-      <c r="E10" s="17">
-        <v>6.6489616030072105E-4</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0.83115778669996898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="62">
+        <v>0.172097</v>
+      </c>
+      <c r="D10" s="40">
+        <v>0.31694600000000001</v>
+      </c>
+      <c r="E10" s="41">
+        <v>1.274E-3</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0.8306</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="E12" s="53" t="s">
-        <v>24</v>
-      </c>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1193,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DD6B03-C563-8C4A-ACAD-86BADDA19BE5}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="181" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F7" sqref="B2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1205,142 +1417,422 @@
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="58">
         <v>0.29674134350602699</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="59">
         <v>0.42555150684516602</v>
       </c>
-      <c r="E2" s="12">
-        <v>3.1321293238342198E-3</v>
-      </c>
-      <c r="F2" s="23">
+      <c r="E2" s="37">
+        <v>-1.65E-4</v>
+      </c>
+      <c r="F2" s="60">
         <v>0.70746290962935199</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J2" s="46">
+        <v>1</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="51">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="M2" s="51">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="N2" s="52">
+        <v>3.13E-3</v>
+      </c>
+      <c r="O2" s="53">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
-        <v>0.18305008659613001</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.32574795073503399</v>
-      </c>
-      <c r="E3" s="5">
-        <v>-3.1788142441630698E-3</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0.81954720402399395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" s="61">
+        <v>0.18448000000000001</v>
+      </c>
+      <c r="D3" s="35">
+        <v>0.32691199999999998</v>
+      </c>
+      <c r="E3" s="37">
+        <v>-3.4919999999999999E-3</v>
+      </c>
+      <c r="F3" s="38">
+        <v>0.81818400000000002</v>
+      </c>
+      <c r="J3" s="46">
+        <v>2</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="51">
+        <v>0.183</v>
+      </c>
+      <c r="M3" s="51">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="N3" s="52">
+        <v>-3.1800000000000001E-3</v>
+      </c>
+      <c r="O3" s="53">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
-        <v>0.17467692186216399</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.320708617222904</v>
-      </c>
-      <c r="E4" s="5">
-        <v>-7.2493136885341697E-5</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0.82780156224642698</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="61">
+        <v>0.175037</v>
+      </c>
+      <c r="D4" s="35">
+        <v>0.32057000000000002</v>
+      </c>
+      <c r="E4" s="37">
+        <v>3.1199999999999999E-4</v>
+      </c>
+      <c r="F4" s="38">
+        <v>0.82749099999999998</v>
+      </c>
+      <c r="J4" s="46">
+        <v>3</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="51">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="M4" s="51">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="N4" s="52">
+        <v>-6.9999999999999994E-5</v>
+      </c>
+      <c r="O4" s="53">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6">
-        <v>0.176602098505519</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.32201913192170001</v>
-      </c>
-      <c r="E5" s="5">
-        <v>6.8735220591213597E-3</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0.82590370186022799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="61">
+        <v>0.17523900000000001</v>
+      </c>
+      <c r="D5" s="35">
+        <v>0.32075599999999999</v>
+      </c>
+      <c r="E5" s="37">
+        <v>6.5259999999999997E-3</v>
+      </c>
+      <c r="F5" s="38">
+        <v>0.827291</v>
+      </c>
+      <c r="J5" s="46">
+        <v>4</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="51">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="M5" s="51">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="N5" s="52">
+        <v>6.8700000000000002E-3</v>
+      </c>
+      <c r="O5" s="53">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6">
-        <v>0.17055328270727799</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.31597262743930099</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1.2073978336556699E-3</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0.83186669124435597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="61">
+        <v>0.170824</v>
+      </c>
+      <c r="D6" s="35">
+        <v>0.316085</v>
+      </c>
+      <c r="E6" s="37">
+        <v>1.0430000000000001E-3</v>
+      </c>
+      <c r="F6" s="38">
+        <v>0.83164199999999999</v>
+      </c>
+      <c r="J6" s="46">
+        <v>5</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="51">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="M6" s="51">
+        <v>0.316</v>
+      </c>
+      <c r="N6" s="52">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="O6" s="53">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="24">
-        <v>0.171530046798191</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0.31645229470526798</v>
-      </c>
-      <c r="E7" s="17">
-        <v>6.6489616030072105E-4</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0.83115778669996898</v>
+      <c r="C7" s="62">
+        <v>0.172097</v>
+      </c>
+      <c r="D7" s="40">
+        <v>0.31694600000000001</v>
+      </c>
+      <c r="E7" s="41">
+        <v>1.274E-3</v>
+      </c>
+      <c r="F7" s="42">
+        <v>0.8306</v>
+      </c>
+      <c r="J7" s="46">
+        <v>6</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="55">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="M7" s="55">
+        <v>0.316</v>
+      </c>
+      <c r="N7" s="56">
+        <v>6.6E-4</v>
+      </c>
+      <c r="O7" s="57">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.29674134350602699</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.42555150684516602</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-1.65E-4</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.70746290962935199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.49555242280028999</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.53934715801116195</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5.1330520396678696E-3</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.51147895141784205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.20702899999999999</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.35193600000000003</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-1.6150000000000001E-2</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0.79596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.22459699999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.36152699999999999</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1.13E-4</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.77864599999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.18448000000000001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.32691199999999998</v>
+      </c>
+      <c r="E15" s="5">
+        <v>-3.4919999999999999E-3</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.81818400000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.175037</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.32057000000000002</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3.1199999999999999E-4</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.82749099999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.17523900000000001</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.32075599999999999</v>
+      </c>
+      <c r="E17" s="5">
+        <v>6.5259999999999997E-3</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0.827291</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.170824</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.316085</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1.0430000000000001E-3</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0.83164199999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="23">
+        <v>0.172097</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.31694600000000001</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1.274E-3</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.8306</v>
       </c>
     </row>
   </sheetData>
@@ -1352,8 +1844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAF350A-CADE-DB43-896A-7C0AA1132BF2}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1369,30 +1861,30 @@
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47" t="s">
+      <c r="F3" s="66"/>
+      <c r="G3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47" t="s">
+      <c r="H3" s="66"/>
+      <c r="I3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="48"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1424,28 +1916,28 @@
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <v>0.28424232511670899</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="30">
         <v>0.29674134350602699</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>0.41701173892321403</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="30">
         <v>0.42555150684516602</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="32">
         <v>-1.1338687664926199E-2</v>
       </c>
-      <c r="H5" s="33">
-        <v>3.1321293238342198E-3</v>
-      </c>
-      <c r="I5" s="31">
+      <c r="H5" s="37">
+        <v>-1.65E-4</v>
+      </c>
+      <c r="I5" s="30">
         <v>0.70130382259031698</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="33">
         <v>0.70746290962935199</v>
       </c>
     </row>
@@ -1456,29 +1948,29 @@
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="34">
         <v>0.200587137607834</v>
       </c>
-      <c r="D6" s="36">
-        <v>0.18305008659613001</v>
-      </c>
-      <c r="E6" s="36">
+      <c r="D6" s="61">
+        <v>0.18448000000000001</v>
+      </c>
+      <c r="E6" s="35">
         <v>0.34336042593448501</v>
       </c>
-      <c r="F6" s="36">
-        <v>0.32574795073503399</v>
-      </c>
-      <c r="G6" s="37">
+      <c r="F6" s="35">
+        <v>0.32691199999999998</v>
+      </c>
+      <c r="G6" s="36">
         <v>-2.2195421463253599E-3</v>
       </c>
-      <c r="H6" s="38">
-        <v>-3.1788142441630698E-3</v>
-      </c>
-      <c r="I6" s="36">
+      <c r="H6" s="37">
+        <v>-3.4919999999999999E-3</v>
+      </c>
+      <c r="I6" s="35">
         <v>0.789217702122334</v>
       </c>
-      <c r="J6" s="39">
-        <v>0.81954720402399395</v>
+      <c r="J6" s="38">
+        <v>0.81818400000000002</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1488,29 +1980,29 @@
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="34">
         <v>0.19004717781140301</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <v>0.17467692186216399</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>0.33595167768105699</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <v>0.320708617222904</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="37">
         <v>-2.3424183389194101E-3</v>
       </c>
-      <c r="H7" s="38">
-        <v>-7.2493136885341697E-5</v>
-      </c>
-      <c r="I7" s="36">
+      <c r="H7" s="37">
+        <v>3.1199999999999999E-4</v>
+      </c>
+      <c r="I7" s="35">
         <v>0.80029337213749396</v>
       </c>
-      <c r="J7" s="39">
-        <v>0.82780156224642698</v>
+      <c r="J7" s="38">
+        <v>0.82749099999999998</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1520,29 +2012,29 @@
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <v>0.189557407155417</v>
       </c>
-      <c r="D8" s="36">
-        <v>0.176602098505519</v>
-      </c>
-      <c r="E8" s="36">
+      <c r="D8" s="61">
+        <v>0.17523900000000001</v>
+      </c>
+      <c r="E8" s="35">
         <v>0.33524323041137299</v>
       </c>
-      <c r="F8" s="36">
-        <v>0.32201913192170001</v>
-      </c>
-      <c r="G8" s="37">
+      <c r="F8" s="35">
+        <v>0.32075599999999999</v>
+      </c>
+      <c r="G8" s="36">
         <v>-5.87420455132125E-3</v>
       </c>
-      <c r="H8" s="38">
-        <v>6.8735220591213597E-3</v>
-      </c>
-      <c r="I8" s="36">
+      <c r="H8" s="37">
+        <v>6.5259999999999997E-3</v>
+      </c>
+      <c r="I8" s="35">
         <v>0.80080803616597096</v>
       </c>
-      <c r="J8" s="39">
-        <v>0.82590370186022799</v>
+      <c r="J8" s="38">
+        <v>0.827291</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1552,29 +2044,29 @@
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <v>0.18337333652304899</v>
       </c>
-      <c r="D9" s="36">
-        <v>0.17055328270727799</v>
-      </c>
-      <c r="E9" s="36">
+      <c r="D9" s="61">
+        <v>0.170824</v>
+      </c>
+      <c r="E9" s="35">
         <v>0.32929133849816</v>
       </c>
-      <c r="F9" s="36">
-        <v>0.31597262743930099</v>
-      </c>
-      <c r="G9" s="38">
+      <c r="F9" s="35">
+        <v>0.316085</v>
+      </c>
+      <c r="G9" s="37">
         <v>-3.47873035647238E-3</v>
       </c>
-      <c r="H9" s="38">
-        <v>1.2073978336556699E-3</v>
-      </c>
-      <c r="I9" s="36">
+      <c r="H9" s="37">
+        <v>1.0430000000000001E-3</v>
+      </c>
+      <c r="I9" s="35">
         <v>0.80730642202297898</v>
       </c>
-      <c r="J9" s="39">
-        <v>0.83186669124435597</v>
+      <c r="J9" s="38">
+        <v>0.83164199999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1584,29 +2076,29 @@
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="39">
         <v>0.19068957800811701</v>
       </c>
-      <c r="D10" s="41">
-        <v>0.171530046798191</v>
-      </c>
-      <c r="E10" s="41">
+      <c r="D10" s="62">
+        <v>0.172097</v>
+      </c>
+      <c r="E10" s="40">
         <v>0.33482443887232699</v>
       </c>
-      <c r="F10" s="41">
-        <v>0.31645229470526798</v>
-      </c>
-      <c r="G10" s="42">
+      <c r="F10" s="40">
+        <v>0.31694600000000001</v>
+      </c>
+      <c r="G10" s="41">
         <v>1.98656468938251E-3</v>
       </c>
-      <c r="H10" s="42">
-        <v>6.6489616030072105E-4</v>
-      </c>
-      <c r="I10" s="41">
+      <c r="H10" s="41">
+        <v>1.274E-3</v>
+      </c>
+      <c r="I10" s="40">
         <v>0.79993185750350504</v>
       </c>
-      <c r="J10" s="43">
-        <v>0.83115778669996898</v>
+      <c r="J10" s="42">
+        <v>0.8306</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1622,69 +2114,69 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1705,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DC665E-FF03-814D-851F-61BAAB8291A4}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="158" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:J8"/>
+    <sheetView zoomScale="183" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1716,30 +2208,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="27"/>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="48"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1766,259 +2258,260 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="29">
         <v>0.29775821889533999</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <v>0.29674134350602699</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <v>0.426402548017699</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <v>0.42555150684516602</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="30">
         <v>-4.0418950977187202E-4</v>
       </c>
-      <c r="H3" s="33">
-        <v>3.1321293238342198E-3</v>
-      </c>
-      <c r="I3" s="31">
+      <c r="H3" s="37">
+        <v>-1.65E-4</v>
+      </c>
+      <c r="I3" s="30">
         <v>0.70660342522169595</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="33">
         <v>0.70746290962935199</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="64">
         <v>0.182810217685102</v>
       </c>
-      <c r="D4" s="36">
-        <v>0.18305008659613001</v>
-      </c>
-      <c r="E4" s="36">
+      <c r="D4" s="61">
+        <v>0.18448000000000001</v>
+      </c>
+      <c r="E4" s="35">
         <v>0.32527880578889801</v>
       </c>
-      <c r="F4" s="36">
-        <v>0.32574795073503399</v>
-      </c>
-      <c r="G4" s="38">
+      <c r="F4" s="35">
+        <v>0.32691199999999998</v>
+      </c>
+      <c r="G4" s="36">
         <v>-3.3225708032920899E-3</v>
       </c>
-      <c r="H4" s="38">
-        <v>-3.1788142441630698E-3</v>
-      </c>
-      <c r="I4" s="36">
+      <c r="H4" s="37">
+        <v>-3.4919999999999999E-3</v>
+      </c>
+      <c r="I4" s="35">
         <v>0.81987145138806095</v>
       </c>
-      <c r="J4" s="39">
-        <v>0.81954720402399395</v>
-      </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="26"/>
+      <c r="J4" s="38">
+        <v>0.81818400000000002</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="34">
         <v>0.17470639722791501</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="35">
         <v>0.17467692186216399</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>0.32017584568326701</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <v>0.320708617222904</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="37">
         <v>-9.4354156825140199E-4</v>
       </c>
-      <c r="H5" s="38">
-        <v>-7.2493136885341697E-5</v>
-      </c>
-      <c r="I5" s="36">
+      <c r="H5" s="37">
+        <v>3.1199999999999999E-4</v>
+      </c>
+      <c r="I5" s="35">
         <v>0.82785639575084902</v>
       </c>
-      <c r="J5" s="39">
-        <v>0.82780156224642698</v>
-      </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="26"/>
+      <c r="J5" s="38">
+        <v>0.82749099999999998</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+      <c r="A6" s="27">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="34">
         <v>0.17592717542891001</v>
       </c>
-      <c r="D6" s="36">
-        <v>0.176602098505519</v>
-      </c>
-      <c r="E6" s="36">
+      <c r="D6" s="61">
+        <v>0.17523900000000001</v>
+      </c>
+      <c r="E6" s="35">
         <v>0.321854143817143</v>
       </c>
-      <c r="F6" s="36">
-        <v>0.32201913192170001</v>
-      </c>
-      <c r="G6" s="37">
+      <c r="F6" s="35">
+        <v>0.32075599999999999</v>
+      </c>
+      <c r="G6" s="36">
         <v>5.6771445573142003E-3</v>
       </c>
-      <c r="H6" s="38">
-        <v>6.8735220591213597E-3</v>
-      </c>
-      <c r="I6" s="44">
+      <c r="H6" s="37">
+        <v>6.5259999999999997E-3</v>
+      </c>
+      <c r="I6" s="35">
         <v>0.82665352531884195</v>
       </c>
-      <c r="J6" s="39">
-        <v>0.82590370186022799</v>
-      </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
+      <c r="J6" s="38">
+        <v>0.827291</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="34">
         <v>0.170138543884129</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <v>0.17055328270727799</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>0.31555688802495602</v>
       </c>
-      <c r="F7" s="36">
-        <v>0.31597262743930099</v>
-      </c>
-      <c r="G7" s="37">
+      <c r="F7" s="35">
+        <v>0.316085</v>
+      </c>
+      <c r="G7" s="36">
         <v>4.7033733654198398E-4</v>
       </c>
-      <c r="H7" s="38">
-        <v>1.2073978336556699E-3</v>
-      </c>
-      <c r="I7" s="36">
+      <c r="H7" s="37">
+        <v>1.0430000000000001E-3</v>
+      </c>
+      <c r="I7" s="35">
         <v>0.83235724260452904</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="38">
         <v>0.83186669124435597</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="26"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
     </row>
     <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="39">
         <v>0.17102106994535299</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="40">
         <v>0.171530046798191</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="40">
         <v>0.31589585177587598</v>
       </c>
-      <c r="F8" s="41">
-        <v>0.31645229470526798</v>
-      </c>
-      <c r="G8" s="42">
+      <c r="F8" s="40">
+        <v>0.31694600000000001</v>
+      </c>
+      <c r="G8" s="63">
         <v>7.8561233520025805E-4</v>
       </c>
-      <c r="H8" s="42">
-        <v>6.6489616030072105E-4</v>
-      </c>
-      <c r="I8" s="45">
+      <c r="H8" s="41">
+        <v>1.274E-3</v>
+      </c>
+      <c r="I8" s="43">
         <v>0.83165878801114201</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="42">
         <v>0.83115778669996898</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="26"/>
-    </row>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="76"/>
+    </row>
+    <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="77"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="B10:F13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FINAL_SCORES_COMPARISON.xlsx
+++ b/FINAL_SCORES_COMPARISON.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fra/Desktop/GH_TEHSIS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fra/Desktop/GH_THESIS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACE1438-B05A-B048-99EA-ADC6D4C095F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D0AF32-2DF9-314F-88DD-70E337D69F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18960" xr2:uid="{C808EA33-FE0F-5640-9B33-FE1799761BD9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
   <si>
     <t>method</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>VECCHI !!!</t>
+  </si>
+  <si>
+    <t>adj. R2</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,6 +175,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -647,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -839,6 +855,60 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1157,121 +1227,99 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="58">
-        <v>0.29674134350602699</v>
-      </c>
-      <c r="D2" s="59">
-        <v>0.42555150684516602</v>
-      </c>
-      <c r="E2" s="37">
-        <v>-1.65E-4</v>
-      </c>
-      <c r="F2" s="60">
-        <v>0.70746290962935199</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>23</v>
+      <c r="F2" s="83" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="61">
-        <v>0.49555242280028999</v>
-      </c>
-      <c r="D3" s="35">
-        <v>0.53934715801116195</v>
-      </c>
-      <c r="E3" s="37">
-        <v>5.1330520396678696E-3</v>
-      </c>
-      <c r="F3" s="38">
-        <v>0.51147895141784205</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="85">
+        <v>0.29674134350602699</v>
+      </c>
+      <c r="D3" s="86">
+        <v>0.42555150684516602</v>
+      </c>
+      <c r="E3" s="87">
+        <v>-1.65E-4</v>
+      </c>
+      <c r="F3" s="88">
+        <v>0.70746290962935199</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="61">
-        <v>0.20702899999999999</v>
-      </c>
-      <c r="D4" s="35">
-        <v>0.35193600000000003</v>
-      </c>
-      <c r="E4" s="37">
-        <v>-1.6150000000000001E-2</v>
-      </c>
-      <c r="F4" s="38">
-        <v>0.79596</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="90">
+        <v>0.49555242280028999</v>
+      </c>
+      <c r="D4" s="91">
+        <v>0.53934715801116195</v>
+      </c>
+      <c r="E4" s="87">
+        <v>5.1330520396678696E-3</v>
+      </c>
+      <c r="F4" s="92">
+        <v>0.51147895141784205</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="61">
-        <v>0.22459699999999999</v>
-      </c>
-      <c r="D5" s="35">
-        <v>0.36152699999999999</v>
-      </c>
-      <c r="E5" s="37">
-        <v>1.13E-4</v>
-      </c>
-      <c r="F5" s="38">
-        <v>0.77864599999999995</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="90">
+        <v>0.20702899999999999</v>
+      </c>
+      <c r="D5" s="91">
+        <v>0.35193600000000003</v>
+      </c>
+      <c r="E5" s="87">
+        <v>-1.6150000000000001E-2</v>
+      </c>
+      <c r="F5" s="92">
+        <v>0.79596</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>23</v>
@@ -1279,22 +1327,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="61">
-        <v>0.18448000000000001</v>
-      </c>
-      <c r="D6" s="35">
-        <v>0.32691199999999998</v>
-      </c>
-      <c r="E6" s="37">
-        <v>-3.4919999999999999E-3</v>
-      </c>
-      <c r="F6" s="38">
-        <v>0.81818400000000002</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="90">
+        <v>0.22459699999999999</v>
+      </c>
+      <c r="D6" s="91">
+        <v>0.36152699999999999</v>
+      </c>
+      <c r="E6" s="87">
+        <v>1.13E-4</v>
+      </c>
+      <c r="F6" s="92">
+        <v>0.77864599999999995</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>23</v>
@@ -1302,22 +1350,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="61">
-        <v>0.175037</v>
-      </c>
-      <c r="D7" s="35">
-        <v>0.32057000000000002</v>
-      </c>
-      <c r="E7" s="37">
-        <v>3.1199999999999999E-4</v>
-      </c>
-      <c r="F7" s="38">
-        <v>0.82749099999999998</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="90">
+        <v>0.18448000000000001</v>
+      </c>
+      <c r="D7" s="91">
+        <v>0.32691199999999998</v>
+      </c>
+      <c r="E7" s="87">
+        <v>-3.4919999999999999E-3</v>
+      </c>
+      <c r="F7" s="92">
+        <v>0.81818400000000002</v>
       </c>
       <c r="H7" s="44" t="s">
         <v>23</v>
@@ -1325,22 +1373,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="61">
-        <v>0.17523900000000001</v>
-      </c>
-      <c r="D8" s="35">
-        <v>0.32075599999999999</v>
-      </c>
-      <c r="E8" s="37">
-        <v>6.5259999999999997E-3</v>
-      </c>
-      <c r="F8" s="38">
-        <v>0.827291</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="90">
+        <v>0.175037</v>
+      </c>
+      <c r="D8" s="91">
+        <v>0.32057000000000002</v>
+      </c>
+      <c r="E8" s="87">
+        <v>3.1199999999999999E-4</v>
+      </c>
+      <c r="F8" s="92">
+        <v>0.82749099999999998</v>
       </c>
       <c r="H8" s="44" t="s">
         <v>23</v>
@@ -1348,52 +1396,75 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="61">
-        <v>0.170824</v>
-      </c>
-      <c r="D9" s="35">
-        <v>0.316085</v>
-      </c>
-      <c r="E9" s="37">
-        <v>2.0370000000000002E-3</v>
-      </c>
-      <c r="F9" s="38">
-        <v>0.83164199999999999</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="90">
+        <v>0.17523900000000001</v>
+      </c>
+      <c r="D9" s="91">
+        <v>0.32075599999999999</v>
+      </c>
+      <c r="E9" s="87">
+        <v>6.5259999999999997E-3</v>
+      </c>
+      <c r="F9" s="92">
+        <v>0.827291</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="62">
-        <v>0.172097</v>
-      </c>
-      <c r="D10" s="40">
-        <v>0.31694600000000001</v>
-      </c>
-      <c r="E10" s="41">
-        <v>1.274E-3</v>
-      </c>
-      <c r="F10" s="42">
-        <v>0.8306</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="90">
+        <v>0.170824</v>
+      </c>
+      <c r="D10" s="91">
+        <v>0.316085</v>
+      </c>
+      <c r="E10" s="87">
+        <v>2.0370000000000002E-3</v>
+      </c>
+      <c r="F10" s="92">
+        <v>0.83164199999999999</v>
       </c>
       <c r="H10" s="44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="94">
+        <v>0.172097</v>
+      </c>
+      <c r="D11" s="95">
+        <v>0.31694600000000001</v>
+      </c>
+      <c r="E11" s="96">
+        <v>1.274E-3</v>
+      </c>
+      <c r="F11" s="97">
+        <v>0.8306</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="45"/>
